--- a/assets/sound/tracks/L1_SB1_A-H/L1_SB1_A-H_mp3리스트.xlsx
+++ b/assets/sound/tracks/L1_SB1_A-H/L1_SB1_A-H_mp3리스트.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SEKIM_SSD/**SEKIM_작업방/Big Step_On Going/*빅스텝_영어/@온라인학습 스토리보드/#Final/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA3C670-2B4A-DC47-904C-5491FB243C49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="460" windowWidth="29200" windowHeight="26400" xr2:uid="{B308C3DB-4169-C445-9D11-4074BFBAC760}"/>
+    <workbookView xWindow="4440" yWindow="465" windowWidth="29205" windowHeight="16440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="H" sheetId="8" r:id="rId1"/>
@@ -23,8 +17,8 @@
     <sheet name="A" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -645,7 +639,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -889,7 +883,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -941,7 +935,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1135,28 +1129,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05555D04-D630-ED49-B9AC-4E33394679CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="4"/>
-    <col min="7" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4"/>
+    <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1757,21 +1751,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57B55B7-46F4-F04B-9D59-0BA1FDB9A2D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2372,21 +2366,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27F408E-4C95-B847-8F61-590E7B3B2A7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="4"/>
-    <col min="7" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4"/>
+    <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2987,21 +2981,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BDF023-01AB-1A43-80CF-1CB5D23421BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="4"/>
-    <col min="7" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4"/>
+    <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3602,21 +3596,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2B5A55-9568-E245-B9F9-E1BC034520E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="4"/>
-    <col min="7" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4"/>
+    <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4217,21 +4211,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BAE0EC-BB26-084E-9E2A-F7C632EF5C26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D29" sqref="A1:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="4"/>
-    <col min="7" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4"/>
+    <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4825,26 +4822,27 @@
     <mergeCell ref="B37:B41"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204401FF-8EC3-904E-A035-984DC01814C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="4"/>
-    <col min="7" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4"/>
+    <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5445,21 +5443,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5EB84B-687B-B44D-9DB0-BC49292EEFA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="4"/>
-    <col min="7" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="46.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4"/>
+    <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
